--- a/experiments/data/New_Dataset.xlsx
+++ b/experiments/data/New_Dataset.xlsx
@@ -13,19 +13,21 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Impact K" sheetId="14" r:id="rId2"/>
-    <sheet name="K plot" sheetId="15" r:id="rId3"/>
-    <sheet name="New_datasaet" sheetId="10" r:id="rId4"/>
-    <sheet name="age" sheetId="5" r:id="rId5"/>
-    <sheet name="AVG student" sheetId="11" r:id="rId6"/>
-    <sheet name="MAX student" sheetId="13" r:id="rId7"/>
-    <sheet name="cost" sheetId="6" r:id="rId8"/>
-    <sheet name="avg" sheetId="2" r:id="rId9"/>
-    <sheet name="max oldpeak" sheetId="4" r:id="rId10"/>
-    <sheet name="flight cost" sheetId="7" r:id="rId11"/>
+    <sheet name="Cost Rec" sheetId="16" r:id="rId2"/>
+    <sheet name="plot cost" sheetId="17" r:id="rId3"/>
+    <sheet name="Impact K" sheetId="14" r:id="rId4"/>
+    <sheet name="K plot" sheetId="15" r:id="rId5"/>
+    <sheet name="New_datasaet" sheetId="10" r:id="rId6"/>
+    <sheet name="age" sheetId="5" r:id="rId7"/>
+    <sheet name="AVG student" sheetId="11" r:id="rId8"/>
+    <sheet name="MAX student" sheetId="13" r:id="rId9"/>
+    <sheet name="cost" sheetId="6" r:id="rId10"/>
+    <sheet name="avg" sheetId="2" r:id="rId11"/>
+    <sheet name="max oldpeak" sheetId="4" r:id="rId12"/>
+    <sheet name="flight cost" sheetId="7" r:id="rId13"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId12"/>
+    <externalReference r:id="rId14"/>
   </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="27">
   <si>
     <t>﻿select cp, avg(oldpeak) from heart_disease where num = 'disease' group by cp order by cp</t>
   </si>
@@ -104,11 +106,29 @@
   <si>
     <t>k</t>
   </si>
+  <si>
+    <t>seconds</t>
+  </si>
+  <si>
+    <t>Schemes</t>
+  </si>
+  <si>
+    <t>DiVE-Greedy-Adaptive (Rectifying)</t>
+  </si>
+  <si>
+    <t>DiVE-dSwap-Adaptive (Rectifying)</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="12"/>
@@ -175,9 +195,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -574,6 +596,782 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.6287392916748945E-2"/>
+          <c:y val="0.12989505514372987"/>
+          <c:w val="0.86647695765900523"/>
+          <c:h val="0.61071372489562969"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>no disease</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$30:$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>﻿asymptomatic</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>﻿atypical angina</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>﻿non-anginal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>﻿typical angina</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$30:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>54.076923076923002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49.825000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52.646153846153801</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56.1875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CD5C-4CF3-9943-794F515883F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>disease</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$30:$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>﻿asymptomatic</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>﻿atypical angina</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>﻿non-anginal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>﻿typical angina</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$30:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>56.409523809523797</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57.4444444444444</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55.142857142857103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CD5C-4CF3-9943-794F515883F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="-27"/>
+        <c:axId val="466306312"/>
+        <c:axId val="466304672"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="466306312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="466304672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="466304672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="466306312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.25979218631187412"/>
+          <c:y val="0.86095835242816865"/>
+          <c:w val="0.48041557549630365"/>
+          <c:h val="7.8575136266962442E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="3000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0" l="0" r="0" t="0" header="0" footer="0"/>
+    <c:pageSetup orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>New_datasaet!$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>want to continue study</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>New_datasaet!$E$9:$E$12</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>&lt; 2 hours</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 - 5 hours</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5 - 10 hours</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>&gt; 10 hours</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>New_datasaet!$F$9:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10.526881720430101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.3068783068783</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.2592592592593</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2054-4F1A-A96B-5B157DBA4F99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>New_datasaet!$G$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>don't want to continue study</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>New_datasaet!$E$9:$E$12</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>&lt; 2 hours</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 - 5 hours</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5 - 10 hours</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>&gt; 10 hours</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>New_datasaet!$G$9:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.3333333333333304</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2054-4F1A-A96B-5B157DBA4F99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="479018472"/>
+        <c:axId val="479013224"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="479018472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="479013224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="479013224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU" sz="2500" b="0" i="1" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>AVG(final grade)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.4515292660873732E-2"/>
+              <c:y val="0.31836351473771146"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="479018472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="3000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -974,7 +1772,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1038,26 +1836,18 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>[1]flight_costs!$B$1:$F$1</c:f>
+              <c:f>[1]flight_costs!$B$1:$D$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Linear
-Importance</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Greedy
-Diversity</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>DiVE
 Greedy</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="1">
                   <c:v>DiVE
 iSwap</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="2">
                   <c:v>DiVE
 dSwap</c:v>
                 </c:pt>
@@ -1066,23 +1856,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]flight_costs!$B$2:$F$2</c:f>
+              <c:f>[1]flight_costs!$B$2:$D$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>12.325840473175026</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>12.325840473175026</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.325840473175026</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12.325840473175026</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>12.325840473175026</c:v>
                 </c:pt>
               </c:numCache>
@@ -1125,26 +1909,18 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>[1]flight_costs!$B$1:$F$1</c:f>
+              <c:f>[1]flight_costs!$B$1:$D$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Linear
-Importance</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Greedy
-Diversity</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>DiVE
 Greedy</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="1">
                   <c:v>DiVE
 iSwap</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="2">
                   <c:v>DiVE
 dSwap</c:v>
                 </c:pt>
@@ -1153,23 +1929,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]flight_costs!$B$3:$F$3</c:f>
+              <c:f>[1]flight_costs!$B$3:$D$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.38439526824974701</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33095531463623001</c:v>
+                  <c:v>1.147682426824975</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.38439526824974701</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.147682426824975</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>1.1594267994812242</c:v>
                 </c:pt>
               </c:numCache>
@@ -1415,7 +2185,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1906,7 +2676,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2409,7 +3179,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2462,67 +3232,53 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>[1]flight_costs!$B$1:$H$1</c:f>
+              <c:f>[1]flight_costs!$B$1:$F$1</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Linear
-Importance</c:v>
+                  <c:v>DiVE
+Greedy</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Greedy
-Diversity</c:v>
+                  <c:v>DiVE
+iSwap</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>DiVE
-Greedy</c:v>
+dSwap</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>DiVE
-iSwap</c:v>
+Greedy
+Adaptive (97)</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>DiVE
-dSwap</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>DiVE
-Greedy
-Adaptive</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>DiVE
 dSwap
-Adaptive</c:v>
+Adaptive (97)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]flight_costs!$B$2:$H$2</c:f>
+              <c:f>[1]flight_costs!$B$2:$F$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>12.325840473175026</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>12.325840473175026</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>12.325840473175026</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.325840473175026</c:v>
+                  <c:v>7.5572906970976996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.325840473175026</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.5572906970976996</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>7.0257290697097652</c:v>
                 </c:pt>
               </c:numCache>
@@ -2562,67 +3318,53 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>[1]flight_costs!$B$1:$H$1</c:f>
+              <c:f>[1]flight_costs!$B$1:$F$1</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Linear
-Importance</c:v>
+                  <c:v>DiVE
+Greedy</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Greedy
-Diversity</c:v>
+                  <c:v>DiVE
+iSwap</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>DiVE
-Greedy</c:v>
+dSwap</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>DiVE
-iSwap</c:v>
+Greedy
+Adaptive (97)</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>DiVE
-dSwap</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>DiVE
-Greedy
-Adaptive</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>DiVE
 dSwap
-Adaptive</c:v>
+Adaptive (97)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]flight_costs!$B$3:$H$3</c:f>
+              <c:f>[1]flight_costs!$B$3:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.38439526824974701</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33095531463623001</c:v>
+                  <c:v>1.147682426824975</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.38439526824974701</c:v>
+                  <c:v>1.1594267994812242</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.147682426824975</c:v>
+                  <c:v>0.35439526824974699</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1594267994812242</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.35439526824974699</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>1.19942679948122</c:v>
                 </c:pt>
               </c:numCache>
@@ -3602,6 +4344,942 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cost Rec'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DiVE-Greedy-Adaptive</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Cost Rec'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>seconds</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cost Rec'!$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.33095531500000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-27C8-461A-B166-5FFF49916788}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cost Rec'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DiVE-Greedy-Adaptive (Rectifying)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Cost Rec'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>seconds</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cost Rec'!$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.826411</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-27C8-461A-B166-5FFF49916788}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cost Rec'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DiVE-dSwap-Adaptive</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Cost Rec'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>seconds</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cost Rec'!$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.159426799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-27C8-461A-B166-5FFF49916788}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cost Rec'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DiVE-dSwap-Adaptive (Rectifying)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Cost Rec'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>seconds</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cost Rec'!$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.3269451000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-27C8-461A-B166-5FFF49916788}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="562333632"/>
+        <c:axId val="562331664"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="562333632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="562331664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="562331664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU" sz="1200" i="0" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>diversity time execution (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.8588931136459652E-2"/>
+              <c:y val="0.27531434603732385"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="562333632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11901227175500401"/>
+          <c:y val="2.2038567493112948E-2"/>
+          <c:w val="0.4882110648716439"/>
+          <c:h val="0.38477025082608485"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cost Rec'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DiVE-Greedy-Adaptive</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Cost Rec'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>seconds</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cost Rec'!$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.33095531500000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9C31-40EC-9DD1-A4A740C40805}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cost Rec'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DiVE-Greedy-Adaptive (Rectifying)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Cost Rec'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>seconds</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cost Rec'!$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.826411</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9C31-40EC-9DD1-A4A740C40805}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cost Rec'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DiVE-dSwap-Adaptive</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Cost Rec'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>seconds</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cost Rec'!$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.159426799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9C31-40EC-9DD1-A4A740C40805}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cost Rec'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DiVE-dSwap-Adaptive (Rectifying)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Cost Rec'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>seconds</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cost Rec'!$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.3269451000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9C31-40EC-9DD1-A4A740C40805}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="562333632"/>
+        <c:axId val="562331664"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="562333632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="562331664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="562331664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU" sz="2000" i="0" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>diversity time execution (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="9.9496040316774653E-3"/>
+              <c:y val="0.27531427862855723"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="562333632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.7150445287211674E-2"/>
+          <c:y val="0.87644813689627366"/>
+          <c:w val="0.8656991094255766"/>
+          <c:h val="0.12355186310372621"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:title>
       <c:layout/>
       <c:overlay val="0"/>
@@ -3666,23 +5344,26 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Impact K'!$A$2:$A$6</c:f>
+              <c:f>'Impact K'!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
@@ -3690,23 +5371,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Impact K'!$B$2:$B$6</c:f>
+              <c:f>'Impact K'!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.36099999999999999</c:v>
+                  <c:v>0.51</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.38100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.30499999999999999</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.22600000000000001</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.18600000000000003</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.17600000000000002</c:v>
                 </c:pt>
               </c:numCache>
@@ -3744,23 +5428,26 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Impact K'!$A$2:$A$6</c:f>
+              <c:f>'Impact K'!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
@@ -3768,23 +5455,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Impact K'!$C$2:$C$6</c:f>
+              <c:f>'Impact K'!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>0.51200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.42100000000000004</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.36299999999999999</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.27300000000000002</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.20499999999999999</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.17800000000000002</c:v>
                 </c:pt>
               </c:numCache>
@@ -3993,7 +5683,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4037,7 +5727,7 @@
             <a:ln>
               <a:solidFill>
                 <a:schemeClr val="bg1">
-                  <a:lumMod val="85000"/>
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
             </a:ln>
@@ -4046,23 +5736,26 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Impact K'!$A$2:$A$6</c:f>
+              <c:f>'Impact K'!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
@@ -4070,23 +5763,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Impact K'!$B$2:$B$6</c:f>
+              <c:f>'Impact K'!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.36099999999999999</c:v>
+                  <c:v>0.51</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.38100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.30499999999999999</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.22600000000000001</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.18600000000000003</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.17600000000000002</c:v>
                 </c:pt>
               </c:numCache>
@@ -4094,7 +5790,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-06D2-43C0-8D9E-ABEA9B4E5A4A}"/>
+              <c16:uniqueId val="{00000000-B762-438E-9B92-3AB4C82052EE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4118,7 +5814,7 @@
             </a:solidFill>
             <a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:ln>
             <a:effectLst/>
@@ -4126,23 +5822,26 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Impact K'!$A$2:$A$6</c:f>
+              <c:f>'Impact K'!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
@@ -4150,23 +5849,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Impact K'!$C$2:$C$6</c:f>
+              <c:f>'Impact K'!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>0.51200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.42100000000000004</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.36299999999999999</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.27300000000000002</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.20499999999999999</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.17800000000000002</c:v>
                 </c:pt>
               </c:numCache>
@@ -4174,7 +5876,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-06D2-43C0-8D9E-ABEA9B4E5A4A}"/>
+              <c16:uniqueId val="{00000001-B762-438E-9B92-3AB4C82052EE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4205,12 +5907,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -4218,13 +5917,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-AU" sz="2000" i="1" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  </a:rPr>
+                  <a:rPr lang="en-AU" sz="2500" i="1" baseline="0"/>
                   <a:t>k</a:t>
                 </a:r>
               </a:p>
@@ -4244,12 +5937,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -4282,7 +5972,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -4315,12 +6005,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -4328,11 +6015,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-AU" sz="2000" b="0" i="0" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
+                  <a:rPr lang="en-AU" sz="2500" baseline="0"/>
                   <a:t>percentage of pruned queries</a:t>
                 </a:r>
               </a:p>
@@ -4342,8 +6025,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.0079193664506839E-2"/>
-              <c:y val="0.22788134155233855"/>
+              <c:x val="7.1761759096565791E-3"/>
+              <c:y val="0.1416317144408577"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4359,12 +6042,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -4431,7 +6111,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="3000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -4463,7 +6143,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr baseline="0">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -4476,7 +6160,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4867,7 +6551,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5258,782 +6942,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="8.6287392916748945E-2"/>
-          <c:y val="0.12989505514372987"/>
-          <c:w val="0.86647695765900523"/>
-          <c:h val="0.61071372489562969"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$29</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>no disease</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$30:$A$33</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>﻿asymptomatic</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>﻿atypical angina</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>﻿non-anginal</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>﻿typical angina</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$30:$B$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>54.076923076923002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>49.825000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>52.646153846153801</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>56.1875</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CD5C-4CF3-9943-794F515883F3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$29</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>disease</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$30:$A$33</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>﻿asymptomatic</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>﻿atypical angina</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>﻿non-anginal</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>﻿typical angina</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$30:$C$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>56.409523809523797</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>57.4444444444444</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>58.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>55.142857142857103</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CD5C-4CF3-9943-794F515883F3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="75"/>
-        <c:overlap val="-27"/>
-        <c:axId val="466306312"/>
-        <c:axId val="466304672"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="466306312"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="2500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="466304672"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="466304672"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="2500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="466306312"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.25979218631187412"/>
-          <c:y val="0.86095835242816865"/>
-          <c:w val="0.48041557549630365"/>
-          <c:h val="7.8575136266962442E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="3000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0" l="0" r="0" t="0" header="0" footer="0"/>
-    <c:pageSetup orientation="landscape"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>New_datasaet!$F$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>want to continue study</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>New_datasaet!$E$9:$E$12</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>&lt; 2 hours</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2 - 5 hours</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5 - 10 hours</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>&gt; 10 hours</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>New_datasaet!$F$9:$F$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>10.526881720430101</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.3068783068783</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.2592592592593</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2054-4F1A-A96B-5B157DBA4F99}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>New_datasaet!$G$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>don't want to continue study</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>New_datasaet!$E$9:$E$12</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>&lt; 2 hours</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2 - 5 hours</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5 - 10 hours</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>&gt; 10 hours</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>New_datasaet!$G$9:$G$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>6.3333333333333304</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2054-4F1A-A96B-5B157DBA4F99}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="479018472"/>
-        <c:axId val="479013224"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="479018472"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="2500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="479013224"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="479013224"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-AU" sz="2500" b="0" i="1" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>AVG(final grade)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="1.4515292660873732E-2"/>
-              <c:y val="0.31836351473771146"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="2500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="479018472"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="3000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup orientation="landscape"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6235,6 +7143,86 @@
 </file>
 
 <file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7601,7 +8589,7 @@
 </file>
 
 <file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7805,23 +8793,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -7926,8 +8913,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8059,20 +9046,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -8609,7 +9595,7 @@
 </file>
 
 <file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8813,6 +9799,511 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
@@ -9111,7 +10602,510 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13742,6 +15736,80 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>544285</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
@@ -13772,7 +15840,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13813,16 +15881,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13849,15 +15917,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:colOff>590550</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13882,6 +15950,78 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13946,7 +16086,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13983,7 +16123,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -14020,7 +16160,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -14057,80 +16197,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>544285</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -14142,34 +16208,26 @@
       <sheetData sheetId="0">
         <row r="1">
           <cell r="B1" t="str">
-            <v>Linear
-Importance</v>
+            <v>DiVE
+Greedy</v>
           </cell>
           <cell r="C1" t="str">
-            <v>Greedy
-Diversity</v>
+            <v>DiVE
+iSwap</v>
           </cell>
           <cell r="D1" t="str">
             <v>DiVE
-Greedy</v>
+dSwap</v>
           </cell>
           <cell r="E1" t="str">
             <v>DiVE
-iSwap</v>
+Greedy
+Adaptive (97)</v>
           </cell>
           <cell r="F1" t="str">
             <v>DiVE
-dSwap</v>
-          </cell>
-          <cell r="G1" t="str">
-            <v>DiVE
-Greedy
-Adaptive</v>
-          </cell>
-          <cell r="H1" t="str">
-            <v>DiVE
 dSwap
-Adaptive</v>
+Adaptive (97)</v>
           </cell>
         </row>
         <row r="2">
@@ -14180,21 +16238,15 @@
             <v>12.325840473175026</v>
           </cell>
           <cell r="C2">
-            <v>0</v>
+            <v>12.325840473175026</v>
           </cell>
           <cell r="D2">
             <v>12.325840473175026</v>
           </cell>
           <cell r="E2">
-            <v>12.325840473175026</v>
+            <v>7.5572906970976996</v>
           </cell>
           <cell r="F2">
-            <v>12.325840473175026</v>
-          </cell>
-          <cell r="G2">
-            <v>7.5572906970976996</v>
-          </cell>
-          <cell r="H2">
             <v>7.0257290697097652</v>
           </cell>
         </row>
@@ -14203,24 +16255,18 @@
             <v>Diversity Cost (CD)</v>
           </cell>
           <cell r="B3">
-            <v>0</v>
+            <v>0.38439526824974701</v>
           </cell>
           <cell r="C3">
-            <v>0.33095531463623001</v>
+            <v>1.147682426824975</v>
           </cell>
           <cell r="D3">
-            <v>0.38439526824974701</v>
+            <v>1.1594267994812242</v>
           </cell>
           <cell r="E3">
-            <v>1.147682426824975</v>
+            <v>0.35439526824974699</v>
           </cell>
           <cell r="F3">
-            <v>1.1594267994812242</v>
-          </cell>
-          <cell r="G3">
-            <v>0.35439526824974699</v>
-          </cell>
-          <cell r="H3">
             <v>1.19942679948122</v>
           </cell>
         </row>
@@ -14555,7 +16601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView topLeftCell="B22" workbookViewId="0">
+    <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="B29" sqref="B29:C41"/>
     </sheetView>
   </sheetViews>
@@ -14980,6 +17026,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="S33" sqref="S33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView topLeftCell="C10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="V22" sqref="V22"/>
     </sheetView>
@@ -14993,7 +17072,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -15011,10 +17090,127 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="29.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.33095531500000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1.826411</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1.159426799</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3.3269451000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" s="3">
+        <v>0.33095531500000003</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1.826411</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1.159426799</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3.3269451000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -15036,56 +17232,67 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>0.36099999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="C2" s="1">
-        <v>0.42100000000000004</v>
+        <v>0.51200000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
-        <v>0.30499999999999999</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>0.36299999999999999</v>
+        <v>0.42100000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1">
-        <v>0.22600000000000001</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>0.27300000000000002</v>
+        <v>0.36299999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1">
-        <v>0.18600000000000003</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>0.20499999999999999</v>
+        <v>0.27300000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.18600000000000003</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.20499999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
         <v>25</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B7" s="1">
         <v>0.17600000000000002</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C7" s="1">
         <v>0.17800000000000002</v>
       </c>
     </row>
@@ -15095,23 +17302,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A7:G20"/>
   <sheetViews>
@@ -15307,7 +17514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -15324,7 +17531,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -15340,7 +17547,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -15354,37 +17561,4 @@
   <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="S33" sqref="S33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <sheetData/>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>